--- a/projects/project-3/assignment/src/data/bfo-core-ies-structural-matches.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-core-ies-structural-matches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,132 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>R:min</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#Entity</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>R:min</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SubClassOf: ies:Element | SubClassOf: ies:isPartOf min 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R:min</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#State</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>R:min</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SubClassOf: ies:isStateOf min 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R:min</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#Event</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>R:min</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SubClassOf: ies:Element | SubClassOf: ies:isPartOf min 0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/projects/project-3/assignment/src/data/bfo-core-ies-structural-matches.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-core-ies-structural-matches.xlsx
@@ -493,17 +493,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ies:Event | SubClassOf: ns1:BFO_0000132 min 0 | EquivalentTo: ies:Event</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Entity</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Entity</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ies:Event | SubClassOf: ns1:BFO_0000132 min 0 | EquivalentTo: ies:Event</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#State</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Entity</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Entity</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SubClassOf: ies:isStateOf min 1</t>
+          <t>SubClassOf: ies:Element | SubClassOf: ies:isPartOf min 0</t>
         </is>
       </c>
     </row>
@@ -577,17 +577,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ns1:BFO_0000132 min 0</t>
+          <t>SubClassOf: ns1:BFO_0000001 | SubClassOf: ies:Event | SubClassOf: ns1:BFO_0000132 min 0 | EquivalentTo: ies:Event</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Event</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#State</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>State</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SubClassOf: ies:Element | SubClassOf: ies:isPartOf min 0</t>
+          <t>SubClassOf: ies:isStateOf min 1</t>
         </is>
       </c>
     </row>
